--- a/biology/Zoologie/Boa_constricteur/Boa_constricteur.xlsx
+++ b/biology/Zoologie/Boa_constricteur/Boa_constricteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boa constrictor
-Le Boa constricteur (Boa constrictor) est une espèce de serpents de la famille des Boidae[1].
+Le Boa constricteur (Boa constrictor) est une espèce de serpents de la famille des Boidae.
 Anciennement appelé Boa devin ou Aviosa, c'est un très grand serpent que l'on rencontre à l'état sauvage uniquement sur le continent américain. 
 Ce carnivore consomme des proies vivantes qu'il capture en bloquant leur circulation sanguine dans ses replis. 
 </t>
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille varie selon la sous-espèce et le sexe et est comprise entre 1,50 m et 4,20 m (mais dépasse rarement les 3,50 m) pour un poids moyen de 6 à 16 kg (mais les plus gros spécimens, essentiellement des boas constrictor constrictor, peuvent peser jusqu'à près de 30 kg). Le dos de ce serpent comporte des macules sombres[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille varie selon la sous-espèce et le sexe et est comprise entre 1,50 m et 4,20 m (mais dépasse rarement les 3,50 m) pour un poids moyen de 6 à 16 kg (mais les plus gros spécimens, essentiellement des boas constrictor constrictor, peuvent peser jusqu'à près de 30 kg). Le dos de ce serpent comporte des macules sombres.
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est de mœurs crépusculaires à nocturnes. Le boa passe sa journée dans le terrier d'un rongeur ou dans un arbre creux, bien qu'il soit bon nageur[2]. Il mange des iguanes, des oiseaux, des ocelots et d'autres petits mammifères.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est de mœurs crépusculaires à nocturnes. Le boa passe sa journée dans le terrier d'un rongeur ou dans un arbre creux, bien qu'il soit bon nageur. Il mange des iguanes, des oiseaux, des ocelots et d'autres petits mammifères.
 Lorsqu'il serre une proie, il peut exercer sur celle-ci une force allant jusqu'à 32 kN.
 Le boa suit sa proie grâce à l'odeur quand il ne lui tend pas un guet-apens.
-Selon une étude américaine publiée en juillet 2015 dans The Journal of Experimental Biology (en)[3], et contrairement à une idée reçue, le boa constricteur n’étouffe pas ses victimes ; il se contente, grâce à la constriction de ses replis, de provoquer la mort de sa proie par un arrêt circulatoire, coupant l'arrivée de sang dans les organes vitaux, la privant ainsi d'oxygène[4], une méthode qui semble bien plus efficace que d'étouffer sa victime, qui peut encore se débattre lors du processus d'étouffement[5].
+Selon une étude américaine publiée en juillet 2015 dans The Journal of Experimental Biology (en), et contrairement à une idée reçue, le boa constricteur n’étouffe pas ses victimes ; il se contente, grâce à la constriction de ses replis, de provoquer la mort de sa proie par un arrêt circulatoire, coupant l'arrivée de sang dans les organes vitaux, la privant ainsi d'oxygène, une méthode qui semble bien plus efficace que d'étouffer sa victime, qui peut encore se débattre lors du processus d'étouffement.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Sud, en Amérique centrale, en Afrique de l’Ouest et aux Antilles[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Sud, en Amérique centrale, en Afrique de l’Ouest et aux Antilles.
 Il se plaît dans les forêts tropicales, les savanes humides ou sèches et les zones semi-arides.
 </t>
         </is>
@@ -611,9 +629,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les boas sont carnivores, ceux-ci se nourrissent de petits animaux : rongeurs, chauves-souris, oiseaux, gros lézards. Les spécimens plus âgés et plus grands peuvent s'attaquer occasionnellement à des mammifères plus gros tels que l'ocelot[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les boas sont carnivores, ceux-ci se nourrissent de petits animaux : rongeurs, chauves-souris, oiseaux, gros lézards. Les spécimens plus âgés et plus grands peuvent s'attaquer occasionnellement à des mammifères plus gros tels que l'ocelot.
 </t>
         </is>
       </c>
@@ -642,9 +662,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le boa constricteur est une espèce ovovivipare. Les portées contiennent entre 15 et 50 petits[7],[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le boa constricteur est une espèce ovovivipare. Les portées contiennent entre 15 et 50 petits,.
 </t>
         </is>
       </c>
@@ -673,9 +695,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (16 août 2015)[8] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (16 août 2015) :
 Boa constrictor amarali Stull, 1932
 Boa constrictor constrictor Linnaeus, 1758
 Boa constrictor nebulosa (Lazell, 1964)
@@ -709,7 +733,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Cette espèce est protégée par la convention de Washington :
 annexe II pour l'ensemble des sous-espèces
@@ -741,9 +767,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Boa constrictor imperator[9] a été élevée au rang d'espèce par Hynková, Starostová et Frynta en 2009[10] et ils ont placé les sous-espèces Boa constrictor mexicana[11], Boa constrictor sabogae[12] et Boa constrictor longicauda[13] en synonymie avec celle-ci.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Boa constrictor imperator a été élevée au rang d'espèce par Hynková, Starostová et Frynta en 2009 et ils ont placé les sous-espèces Boa constrictor mexicana, Boa constrictor sabogae et Boa constrictor longicauda en synonymie avec celle-ci.
 </t>
         </is>
       </c>
@@ -772,9 +800,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Boa constrictor amarali est nommée en l'honneur d'Afrânio Pompílio Gastos do Amaral[14].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Boa constrictor amarali est nommée en l'honneur d'Afrânio Pompílio Gastos do Amaral.
 </t>
         </is>
       </c>
